--- a/src/testCase/c_useCase_file/Aerocheck/initialize/控件属性已经操作方法初始化.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/控件属性已经操作方法初始化.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="铺层数据库制作工具弹窗" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="测试用例模板" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-警告弹窗</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
@@ -222,7 +222,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -232,7 +231,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -248,7 +246,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -258,7 +255,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -276,7 +272,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -286,7 +281,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -305,7 +299,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -315,41 +308,12 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 在被测模块可能有嵌套窗口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-警告弹窗
-信息窗口
-控件文本</t>
         </r>
       </text>
     </comment>
@@ -359,13 +323,11 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在执行每条用例前都会需要初始化模块
-整个被测模块</t>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
         </r>
       </text>
     </comment>
@@ -374,16 +336,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件操作3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件操作4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果文本信息</t>
+  </si>
+  <si>
+    <t>用例状态</t>
+  </si>
+  <si>
+    <t>预期值信息类型</t>
+  </si>
+  <si>
+    <t>操作窗口标题</t>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+  </si>
+  <si>
+    <t>初始化级别</t>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>用例编号
+程序+模块+编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有多中检查类型
+用“；”隔开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行
+不执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被测模块标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被测模块子模块标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在执行每条用例前都会需要初始化模块（整个被测模块）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待测试结果的时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被测模块的唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告弹窗；信息窗口；
+控件文本；
+文件检查；控件截图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件文本和控件截图，需要切换到控件中才能获取实际值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>控件类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>唯一标识方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -396,95 +456,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件操作1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件操作2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件操作3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件操作4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果文本信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期值信息类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作子窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化级别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在模块-&gt;所在模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、输入默认字符，为不操作此控件；
+2、输入不是默认字符的任何字符，该字符会输入到文本框；
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、输入默认字符，为不操作此控件；
+2、输入不是默认字符的任何字符，该字符会输入到文本框；
+3、如果需要拼接路径，则已以下格式：\automateFile][拼接路径
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +501,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +536,19 @@
     <font>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -567,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -582,9 +604,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -594,6 +613,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -900,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -915,74 +950,54 @@
     </row>
     <row r="2" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,117 +1007,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="38.25" style="6" customWidth="1"/>
-    <col min="3" max="7" width="9" style="7"/>
-    <col min="8" max="8" width="22.25" style="7" customWidth="1"/>
-    <col min="9" max="10" width="9" style="7"/>
-    <col min="11" max="13" width="9" style="9"/>
-    <col min="14" max="14" width="9" style="7"/>
+    <col min="1" max="1" width="10" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="11" customWidth="1"/>
+    <col min="6" max="9" width="10" style="11" customWidth="1"/>
+    <col min="10" max="12" width="10" style="13" customWidth="1"/>
+    <col min="13" max="13" width="10" style="11" customWidth="1"/>
+    <col min="14" max="17" width="10" style="13" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="189" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 I1:I1048576">
-      <formula1>"执行,不执行"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src/testCase/c_useCase_file/Aerocheck/initialize/控件属性已经操作方法初始化.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/控件属性已经操作方法初始化.xlsx
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>唯一标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -494,6 +494,18 @@
 2、输入不是默认字符的任何字符，该字符会输入到文本框；
 3、如果需要拼接路径，则已以下格式：\automateFile][拼接路径
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -933,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -945,59 +957,74 @@
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1010,20 +1037,20 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10" style="11" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="11" customWidth="1"/>
-    <col min="6" max="9" width="10" style="11" customWidth="1"/>
-    <col min="10" max="12" width="10" style="13" customWidth="1"/>
-    <col min="13" max="13" width="10" style="11" customWidth="1"/>
-    <col min="14" max="17" width="10" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="11" customWidth="1"/>
+    <col min="6" max="9" width="8.125" style="11" customWidth="1"/>
+    <col min="10" max="12" width="8.125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="11" customWidth="1"/>
+    <col min="14" max="17" width="8.125" style="13" customWidth="1"/>
     <col min="18" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
